--- a/prevention/ValueSet-CancellationTypes.xlsx
+++ b/prevention/ValueSet-CancellationTypes.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from CareSocialCodes" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Tempcodes" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-28T10:27:14+02:00</t>
+    <t>2024-06-14T10:04:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -118,6 +117,9 @@
     <t>82e99421-31da-4915-96ed-168ccfa1d20c</t>
   </si>
   <si>
+    <t>ef491570-7884-4acd-bcf7-43d6b2c64762</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -125,12 +127,6 @@
   </si>
   <si>
     <t>http://fhir.kl.dk/term/CodeSystem/CareSocialCodes</t>
-  </si>
-  <si>
-    <t>ef491570-7884-4acd-bcf7-43d6b2c64762</t>
-  </si>
-  <si>
-    <t>http://fhir.kl.dk/prevention/CodeSystem/Tempcodes</t>
   </si>
 </sst>
 </file>
@@ -389,7 +385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,63 +455,22 @@
       <c r="A10" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>34</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>36</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="B12" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/prevention/ValueSet-CancellationTypes.xlsx
+++ b/prevention/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:04:53+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-CancellationTypes.xlsx
+++ b/prevention/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-21T13:40:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-CancellationTypes.xlsx
+++ b/prevention/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:40:09+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-CancellationTypes.xlsx
+++ b/prevention/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-24T12:38:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
